--- a/client/src/Excel/Data/Countries/eg.xlsx
+++ b/client/src/Excel/Data/Countries/eg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92C4C2-85C6-44EA-9194-7835F221EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897F6CA-693A-47FD-ADFE-0745E641B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1049,13 +1049,13 @@
       <selection activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="27.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>180</v>
       </c>
       <c r="D2" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2" s="1">
         <v>2025</v>
@@ -1179,7 +1179,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3" s="1">
         <v>2025</v>
@@ -1241,7 +1241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4" s="1">
         <v>2025</v>
@@ -1303,7 +1303,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5" s="1">
         <v>2025</v>
@@ -1365,7 +1365,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6" s="1">
         <v>2025</v>
@@ -1427,7 +1427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7" s="1">
         <v>2025</v>
@@ -1489,7 +1489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8" s="1">
         <v>2025</v>
@@ -1551,7 +1551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9" s="1">
         <v>2025</v>
@@ -1613,7 +1613,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>183</v>
       </c>
       <c r="D10" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10" s="1">
         <v>2025</v>
@@ -1675,7 +1675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>184</v>
       </c>
       <c r="D11" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="1">
         <v>2025</v>
@@ -1737,7 +1737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>187</v>
       </c>
       <c r="D12" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="1">
         <v>2025</v>
@@ -1799,7 +1799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>185</v>
       </c>
       <c r="D13" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="1">
         <v>2025</v>
@@ -1861,7 +1861,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>181</v>
       </c>
       <c r="D14" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="1">
         <v>2025</v>
@@ -1923,7 +1923,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>182</v>
       </c>
       <c r="D15" s="2">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="1">
         <v>2025</v>
